--- a/Docs/03_詳細設計/0301_画面レイアウト/画面レイアウト（買い物情報画面） .xlsx
+++ b/Docs/03_詳細設計/0301_画面レイアウト/画面レイアウト（買い物情報画面） .xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
   <si>
     <t>画面レイアウト</t>
     <rPh sb="0" eb="2">
@@ -331,6 +331,15 @@
   <si>
     <t>update</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列1</t>
+  </si>
+  <si>
+    <t>列2</t>
+  </si>
+  <si>
+    <t>列3</t>
   </si>
 </sst>
 </file>
@@ -367,7 +376,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -535,22 +544,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -562,58 +562,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -642,37 +592,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -688,33 +612,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -737,10 +645,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -787,7 +695,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="買い物情報!$D$1:$P$25" spid="_x0000_s1065"/>
+                  <a14:cameraTool cellRange="買い物情報!$D$1:$P$25" spid="_x0000_s1066"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -924,6 +832,26 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="B44:L55" totalsRowShown="0">
+  <autoFilter ref="B44:L55"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="No"/>
+    <tableColumn id="2" name="項目名"/>
+    <tableColumn id="3" name="項目ID"/>
+    <tableColumn id="4" name="列1"/>
+    <tableColumn id="5" name="桁数"/>
+    <tableColumn id="6" name="種類"/>
+    <tableColumn id="7" name="フォーマット"/>
+    <tableColumn id="8" name="繰り返し"/>
+    <tableColumn id="9" name="備考"/>
+    <tableColumn id="10" name="列2"/>
+    <tableColumn id="11" name="列3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1216,33 +1144,34 @@
   <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="8" max="8" width="11.75" customWidth="1"/>
+    <col min="9" max="9" width="9.25" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
     <col min="13" max="13" width="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1250,14 +1179,14 @@
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
@@ -1790,21 +1719,21 @@
       <c r="M39" s="8"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="32"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="22"/>
       <c r="D40" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E40" s="38" t="str">
+      <c r="E40" s="28" t="str">
         <f t="shared" ref="E40" si="0">$E$1</f>
         <v>買い物情報</v>
       </c>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="40"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="30"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -1812,14 +1741,14 @@
       <c r="M40" s="2"/>
     </row>
     <row r="41" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="33"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="35"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="25"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
@@ -1858,336 +1787,289 @@
       <c r="L43" s="3"/>
       <c r="M43" s="4"/>
     </row>
-    <row r="44" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A44" s="5"/>
-      <c r="B44" s="19" t="s">
+      <c r="B44" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" t="s">
         <v>5</v>
       </c>
-      <c r="E44" s="21"/>
-      <c r="F44" s="19" t="s">
+      <c r="E44" t="s">
+        <v>58</v>
+      </c>
+      <c r="F44" t="s">
         <v>44</v>
       </c>
-      <c r="G44" s="19" t="s">
+      <c r="G44" t="s">
         <v>6</v>
       </c>
-      <c r="H44" s="19" t="s">
+      <c r="H44" t="s">
         <v>26</v>
       </c>
-      <c r="I44" s="19" t="s">
+      <c r="I44" t="s">
         <v>45</v>
       </c>
-      <c r="J44" s="20" t="s">
+      <c r="J44" t="s">
         <v>7</v>
       </c>
-      <c r="K44" s="20"/>
-      <c r="L44" s="21"/>
+      <c r="K44" t="s">
+        <v>59</v>
+      </c>
+      <c r="L44" t="s">
+        <v>60</v>
+      </c>
       <c r="M44" s="4"/>
     </row>
-    <row r="45" spans="1:13" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45" s="5"/>
-      <c r="B45" s="17">
+      <c r="B45">
         <v>1</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D45" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="29"/>
-      <c r="F45" s="22" t="s">
+      <c r="F45" t="s">
         <v>47</v>
       </c>
-      <c r="G45" s="22" t="s">
+      <c r="G45" t="s">
         <v>13</v>
       </c>
-      <c r="H45" s="22"/>
-      <c r="I45" s="25" t="s">
+      <c r="I45" t="s">
         <v>47</v>
       </c>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="18"/>
       <c r="M45" s="4"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46" s="5"/>
-      <c r="B46" s="24">
+      <c r="B46">
         <v>2</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C46" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" t="s">
         <v>48</v>
       </c>
-      <c r="E46" s="27"/>
-      <c r="F46" s="23" t="s">
+      <c r="F46" t="s">
         <v>47</v>
       </c>
-      <c r="G46" s="23" t="s">
+      <c r="G46" t="s">
         <v>9</v>
       </c>
-      <c r="H46" s="23"/>
-      <c r="I46" s="25" t="s">
+      <c r="I46" t="s">
         <v>47</v>
       </c>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="14"/>
       <c r="M46" s="4"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47" s="5"/>
-      <c r="B47" s="24">
+      <c r="B47">
         <v>3</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="26" t="s">
+      <c r="D47" t="s">
         <v>49</v>
       </c>
-      <c r="E47" s="27"/>
-      <c r="F47" s="23" t="s">
+      <c r="F47" t="s">
         <v>47</v>
       </c>
-      <c r="G47" s="23" t="s">
+      <c r="G47" t="s">
         <v>13</v>
       </c>
-      <c r="H47" s="23"/>
-      <c r="I47" s="25" t="s">
+      <c r="I47" t="s">
         <v>47</v>
       </c>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="14"/>
       <c r="M47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A48" s="5"/>
-      <c r="B48" s="15">
+      <c r="B48">
         <v>4</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="26" t="s">
+      <c r="D48" t="s">
         <v>50</v>
       </c>
-      <c r="E48" s="27"/>
-      <c r="F48" s="23">
+      <c r="F48">
         <v>10</v>
       </c>
-      <c r="G48" s="23" t="s">
+      <c r="G48" t="s">
         <v>14</v>
       </c>
-      <c r="H48" s="23" t="s">
+      <c r="H48" t="s">
         <v>29</v>
       </c>
-      <c r="I48" s="25" t="s">
+      <c r="I48" t="s">
         <v>47</v>
       </c>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="14"/>
       <c r="M48" s="4"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A49" s="5"/>
-      <c r="B49" s="15">
+      <c r="B49">
         <v>5</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" t="s">
         <v>21</v>
       </c>
-      <c r="D49" s="26" t="s">
+      <c r="D49" t="s">
         <v>51</v>
       </c>
-      <c r="E49" s="27"/>
-      <c r="F49" s="23" t="s">
+      <c r="F49" t="s">
         <v>47</v>
       </c>
-      <c r="G49" s="23" t="s">
+      <c r="G49" t="s">
         <v>13</v>
       </c>
-      <c r="H49" s="23"/>
-      <c r="I49" s="25" t="s">
+      <c r="I49" t="s">
         <v>47</v>
       </c>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="14"/>
       <c r="M49" s="4"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A50" s="5"/>
-      <c r="B50" s="15">
+      <c r="B50">
         <v>6</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="26" t="s">
+      <c r="D50" t="s">
         <v>52</v>
       </c>
-      <c r="E50" s="27"/>
-      <c r="F50" s="23">
+      <c r="F50">
         <v>100</v>
       </c>
-      <c r="G50" s="23" t="s">
+      <c r="G50" t="s">
         <v>14</v>
       </c>
-      <c r="H50" s="23"/>
-      <c r="I50" s="25" t="s">
+      <c r="I50" t="s">
         <v>47</v>
       </c>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="14"/>
       <c r="M50" s="4"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A51" s="5"/>
-      <c r="B51" s="15">
+      <c r="B51">
         <v>7</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" t="s">
         <v>22</v>
       </c>
-      <c r="D51" s="26" t="s">
+      <c r="D51" t="s">
         <v>54</v>
       </c>
-      <c r="E51" s="27"/>
-      <c r="F51" s="23" t="s">
+      <c r="F51" t="s">
         <v>47</v>
       </c>
-      <c r="G51" s="23" t="s">
+      <c r="G51" t="s">
         <v>13</v>
       </c>
-      <c r="H51" s="23"/>
-      <c r="I51" s="25" t="s">
+      <c r="I51" t="s">
         <v>47</v>
       </c>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="14"/>
       <c r="M51" s="4"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A52" s="5"/>
-      <c r="B52" s="15">
+      <c r="B52">
         <v>8</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" t="s">
         <v>18</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="D52" t="s">
         <v>53</v>
       </c>
-      <c r="E52" s="27"/>
-      <c r="F52" s="23">
+      <c r="F52">
         <v>100</v>
       </c>
-      <c r="G52" s="23" t="s">
+      <c r="G52" t="s">
         <v>14</v>
       </c>
-      <c r="H52" s="23"/>
-      <c r="I52" s="25" t="s">
+      <c r="I52" t="s">
         <v>47</v>
       </c>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="14"/>
       <c r="M52" s="4"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A53" s="5"/>
-      <c r="B53" s="15">
+      <c r="B53">
         <v>9</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="26" t="s">
+      <c r="D53" t="s">
         <v>55</v>
       </c>
-      <c r="E53" s="27"/>
-      <c r="F53" s="23" t="s">
+      <c r="F53" t="s">
         <v>47</v>
       </c>
-      <c r="G53" s="23" t="s">
+      <c r="G53" t="s">
         <v>13</v>
       </c>
-      <c r="H53" s="23"/>
-      <c r="I53" s="25" t="s">
+      <c r="I53" t="s">
         <v>47</v>
       </c>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="14"/>
       <c r="M53" s="4"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A54" s="5"/>
-      <c r="B54" s="15">
+      <c r="B54">
         <v>10</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C54" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="26" t="s">
+      <c r="D54" t="s">
         <v>56</v>
       </c>
-      <c r="E54" s="27"/>
-      <c r="F54" s="23">
+      <c r="F54">
         <v>10</v>
       </c>
-      <c r="G54" s="23" t="s">
+      <c r="G54" t="s">
         <v>14</v>
       </c>
-      <c r="H54" s="23" t="s">
+      <c r="H54" t="s">
         <v>34</v>
       </c>
-      <c r="I54" s="25" t="s">
+      <c r="I54" t="s">
         <v>47</v>
       </c>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="14"/>
       <c r="M54" s="4"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A55" s="5"/>
-      <c r="B55" s="15">
+      <c r="B55">
         <v>11</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" t="s">
         <v>23</v>
       </c>
-      <c r="D55" s="26" t="s">
+      <c r="D55" t="s">
         <v>57</v>
       </c>
-      <c r="E55" s="27"/>
-      <c r="F55" s="23" t="s">
+      <c r="F55" t="s">
         <v>47</v>
       </c>
-      <c r="G55" s="23" t="s">
+      <c r="G55" t="s">
         <v>15</v>
       </c>
-      <c r="H55" s="23"/>
-      <c r="I55" s="25" t="s">
+      <c r="I55" t="s">
         <v>47</v>
       </c>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="14"/>
       <c r="M55" s="4"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.15">
@@ -2536,30 +2418,22 @@
       <c r="M78" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="6">
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="A40:C41"/>
     <mergeCell ref="E40:H40"/>
     <mergeCell ref="E41:H41"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
@@ -2598,40 +2472,40 @@
       <c r="E7" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
     </row>
     <row r="9" spans="5:15" x14ac:dyDescent="0.15">
       <c r="E9" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
     </row>
     <row r="11" spans="5:15" x14ac:dyDescent="0.15">
       <c r="E11" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
     </row>
     <row r="12" spans="5:15" x14ac:dyDescent="0.15">
       <c r="K12" s="11"/>
@@ -2644,14 +2518,14 @@
       <c r="E13" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2675,21 +2549,21 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="18" t="s">
         <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E2" t="s">
@@ -2697,7 +2571,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B3" t="s">
@@ -2706,12 +2580,12 @@
       <c r="C3" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="19" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="18" t="s">
         <v>35</v>
       </c>
       <c r="B4" t="s">
@@ -2722,7 +2596,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B5" t="s">
@@ -2733,7 +2607,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="18" t="s">
         <v>40</v>
       </c>
       <c r="B6" t="s">
